--- a/excel_data/credentials.xlsx
+++ b/excel_data/credentials.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -25,10 +25,22 @@
     <t>Department</t>
   </si>
   <si>
-    <t>Krupa Anna John</t>
+    <t>Diya John</t>
   </si>
   <si>
     <t>Human Resources</t>
+  </si>
+  <si>
+    <t>Ashlita Florence Lopez</t>
+  </si>
+  <si>
+    <t>Laya Wilson</t>
+  </si>
+  <si>
+    <t>Sreelakshmi K P</t>
+  </si>
+  <si>
+    <t>Anju Susan Alex</t>
   </si>
 </sst>
 </file>
@@ -36,19 +48,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -92,7 +98,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -116,8 +122,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C2" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:C2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C6" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:C6"/>
   <tableColumns count="3">
     <tableColumn name="Name" id="1"/>
     <tableColumn name="Emp_ID" id="2"/>
@@ -415,7 +421,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -426,7 +432,7 @@
     <col min="3" max="3" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -437,14 +443,58 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3">
-        <v>1234</v>
+        <v>7259</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>7904</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>7199</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <v>7066</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6205</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
